--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_basic_fm_linear_rcm.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_basic_fm_linear_rcm.xlsx
@@ -9,6 +9,11 @@
   <sheets>
     <sheet name="exponential_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="gaussian_sr_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="inverse_sr_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="power_law_sr_1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="rational_quadratic_sr_1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="generalized_gaussian_sr_1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="sigmoid_sr_1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1726,4 +1731,3274 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>89.88200589970502</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3907461465858432</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8988200589970502</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8806183971879624</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>93.48082595870207</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2311731823543596</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9348082595870206</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.93340430596284</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>88.90855457227138</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4325832980491516</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8890855457227138</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8775889994597359</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.094395280236</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2267452124091505</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.92094395280236</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9197012826509102</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>96.047197640118</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.119415145550253</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9604719764011799</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9599543076758386</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>93.92486094170366</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1476835607623798</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9392486094170366</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9387453997411599</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>93.71681415929204</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1412030517966931</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9371681415929203</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.935987745089761</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>97.46312684365782</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0678772313570363</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9746312684365781</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9744229197086194</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>98.43657817109144</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0442704710353875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9843657817109145</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9844973293119388</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>94.21828908554572</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1424319658109188</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9421828908554571</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9355618451834381</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>93.65816313289908</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1727197394215485</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9365816313289909</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.937137377151633</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>96.69668422737222</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.08555853526874369</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9669668422737221</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9664773073825815</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>92.65486725663717</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2226597524160752</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9265486725663716</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9236270076851273</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.09456829211327</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2211605788829426</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9209456829211327</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9198741467598325</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.51344734816045</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1567086541777826</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9451344734816045</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9431385660935565</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>96.047197640118</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0852976420962174</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9604719764011799</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9594437719229292</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>93.18601371984187</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3369802695594136</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9318601371984186</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9213851713283067</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>97.25663716814159</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1105815709010737</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9725663716814159</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9719285855588602</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>94.71976401179941</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1313790134063311</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.947197640117994</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.945751981716214</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>86.66683967854394</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3216527580322387</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8666683967854393</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8527319607965718</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>93.77581120943952</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1580346320891597</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9377581120943953</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9332946699428675</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>90.35398230088495</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2439280894749875</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9035398230088496</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9017818698860094</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>94.39528023598821</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1504943310871416</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.943952802359882</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9428398551483463</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>94.69026548672566</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1721127968490085</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9469026548672567</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.944244354793318</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>90.97345132743364</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2748986003751838</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9097345132743364</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.902218699809915</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>85.25073746312685</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7065912564568275</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8525073746312686</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8446970662845725</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>86.047197640118</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6447570608341873</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8604719764011799</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8465183426968528</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>99.26253687315634</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.03503326268197782</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9926253687315635</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9926282613285971</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>99.73451327433628</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.006215606342149341</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9973451327433628</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9973456112620657</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>96.69616519174042</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0744239305075188</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9669616519174042</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9658989551357395</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>93.56155906769668</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2085105782190561</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9356155906769666</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9317815364885367</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3.608518473253938</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1603446699429536</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0360851847325394</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.03989387581925052</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>90.0589970501475</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.395798471220769</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9005899705014748</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8819944472668038</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>92.74336283185841</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2771339425925665</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9274336283185841</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9251267379413226</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>88.64306784660766</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5158408535318206</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8864306784660767</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8747512134175064</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>90.73746312684366</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2609292628520052</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9073746312684365</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9023778064770551</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>94.98525073746313</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1721815282900934</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9498525073746313</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9477055025994293</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.18495834739056</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2278776037531012</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9118495834739054</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9089984680811952</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>91.91740412979351</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2014916955488312</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9191740412979351</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9142392990493295</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>95.78171091445428</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.09906929130321109</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9578171091445429</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9570589808288237</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>97.58112094395281</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.06285423685645052</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9758112094395279</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9753022822369116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>94.57227138643069</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.132808061589185</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9457227138643068</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9407207938754473</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>94.13048555783355</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1609605402467423</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9413048555783355</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9420979265941292</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>95.78171091445428</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1213279205095508</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9578171091445429</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9565886215717232</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>92.35988200589971</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2177844415023477</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9235988200589971</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.919296158945994</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>90.08849557522123</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3090333310809607</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9008849557522124</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.889160232098001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.50737463126843</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1930348383696885</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9250737463126842</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9160693576527992</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>96.047197640118</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.09221714793287294</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9604719764011799</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.959653642615123</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>92.65486725663717</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4207203176047181</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9265486725663716</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9143987334153451</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>96.69616519174042</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1236582206892005</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9669616519174042</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9654605868167255</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>95.81120943952803</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.09584865331198671</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9581120943952802</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9571488293456907</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>87.4339743423386</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3201493335713167</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8743397434233859</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8603729221638166</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>92.83358852585229</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2121379474876449</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9283358852585231</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9178823305798499</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>91.88790560471976</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.214210367399816</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9188790560471978</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.913183068307478</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>94.12979351032449</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.171686709915078</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9412979351032448</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.938836529699911</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>95.30973451327434</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1600481904194263</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9530973451327434</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9505776107817194</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>88.99705014749262</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2940525891945981</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8899705014749262</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.880761354654824</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>82.94985250737463</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7273948486475679</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8294985250737463</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8208226449803329</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>84.60176991150442</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.723921570701835</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8460176991150442</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8310307180204749</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>99.20353982300885</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.03528824442273238</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9920353982300885</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.992048156351433</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>99.67551622418878</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.009649562712352377</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.996755162241888</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9967566248980374</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>95.9882005899705</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.08286576437815921</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9598820058997051</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9576880728822589</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>92.90979737425641</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2343991829212209</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9290979737425641</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9236036551383163</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3.828329482086853</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1732096620180681</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.03828329482086853</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.04233082493092653</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>89.9410029498525</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3748533497276488</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.899410029498525</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8847201670549965</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>93.74631268436579</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2219093163907019</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9374631268436578</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9341631617828338</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>88.46607669616519</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4482437915365153</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.884660766961652</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8728139848923634</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.21238938053098</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2231211763037815</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9221238938053098</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9212290088838075</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>96.40117994100294</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1102943543257425</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9640117994100296</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9634629485692734</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.41002949852506</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2882150549659855</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8941002949852507</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8822232853860837</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>93.59882005899706</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1410264248645338</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9359882005899705</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9344016411136794</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>96.3716814159292</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0959414836769156</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.963716814159292</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9626512792928275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>97.66961651917404</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.06939184832469322</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9766961651917404</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9768837797682272</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>95.42772861356931</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.09677752868869902</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9542772861356932</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9525119975247899</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>92.8613569321534</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1885245586677532</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9286135693215339</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9284055379307802</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>96.69616519174042</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.09741010086812216</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9669616519174042</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9662090576814611</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>92.9203539823009</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1999773224812088</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.929203539823009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9267857884988457</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>91.12094395280236</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2090694004805604</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9112094395280236</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9071658384138004</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.95644425989845</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.137464974308629</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9495644425989844</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9484861170602006</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>96.4896755162242</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.08170061437637438</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9648967551622419</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9646623938534429</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>93.30383480825958</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2815621458252576</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9330383480825958</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9261377375981492</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>97.25663716814159</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1184830633059543</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9725663716814159</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9719788308370181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>94.15929203539824</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1414022109303915</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9415929203539823</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9404402740384684</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>87.46312684365782</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3626655449256456</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8746312684365781</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8611322340432729</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>92.00589970501474</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2223763656802475</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9200589970501476</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9118050281177478</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>92.03539823008849</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2077365551852078</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9203539823008849</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9184771428586943</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>94.27728613569322</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1511778951686343</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9427728613569322</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9412854853280029</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>95.13274336283186</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1659304235551342</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9513274336283185</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9495133076466524</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>89.85250737463127</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3077229380609727</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8985250737463126</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8861723692176744</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>83.83498127146429</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7418709488132056</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8383498127146428</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8279634326142677</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>86.51917404129793</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5710726206343679</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8651917404129794</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8506546021429152</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>99.38053097345133</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.03411788561933306</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9938053097345133</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9938098991606928</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>99.67551622418878</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.006881995815299942</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.996755162241888</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.996755091634365</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>95.95870206489676</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1026072631143409</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9595870206489675</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9576655195838029</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>93.30484692774159</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2133176385540619</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9330484692774159</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9286855647509711</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3.713276661848896</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1569395868609234</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.03713276661848896</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0414191887796317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>90.53097345132744</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4006668871050351</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9053097345132743</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8893543755832682</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>93.30383480825959</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2795738746914745</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9330383480825958</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9314484774161972</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>88.52507374631269</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4250583523528803</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8852507374631269</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8742981044550573</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.41592920353983</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2301169146507163</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9141592920353983</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.912576316917372</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>94.92625368731564</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1504997782462548</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9492625368731563</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9473413464235533</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>95.48689867559408</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1167815689615963</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9548689867559409</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9547737221828496</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>92.8613569321534</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1836995582194807</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9286135693215339</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9260012065103493</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>96.78466076696165</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07506002086407951</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9678466076696166</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9676350218072256</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>98.46607669616519</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05330817429910819</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9846607669616519</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9847387679570913</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>95.39823008849558</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1118202147042211</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9539823008849557</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9521348951586713</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>93.77581120943952</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1684686546914842</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9377581120943953</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9387615219473012</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>97.25663716814159</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.07952842985638806</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9725663716814159</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9723362731676891</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>92.56637168141593</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.210674527966997</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9256637168141593</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9225553202752371</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.83185840707965</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2085387010631772</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9283185840707965</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9264490349004244</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.65486725663717</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1991387938888996</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9265486725663716</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9156536286175674</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>97.55162241887906</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.06801513886881973</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9755162241887906</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9754371852256984</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>94.07079646017698</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2445499573059343</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.94070796460177</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9340468223885198</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>96.93215339233038</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1164333150321303</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9693215339233039</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9688419810833105</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>95.13274336283186</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1101095314260116</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9513274336283185</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9503140295631853</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>87.46347286741235</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3442243747015406</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8746347286741235</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8594852068204979</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>92.30088495575221</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2872026046160803</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9230088495575222</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.908008147138238</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>91.65191740412979</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2059911071160362</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9165191740412979</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9153478911067918</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>94.71976401179941</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1449371425179909</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.947197640117994</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9463767413101534</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>95.84070796460176</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1550545870547164</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9584070796460177</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9576188105257181</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>90.70796460176992</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2555764398434766</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9070796460176991</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8970338225810037</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>83.83480825958702</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7678987173419425</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8383480825958702</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8318444152716836</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>85.72271386430678</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6248680351845299</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8572271386430679</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8441219632536434</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>99.11504424778761</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.03542295723014609</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9911504424778761</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9911942572832686</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>99.58702064896755</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.009281334792906619</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9958702064896755</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9958710631214682</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>96.13569321533923</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.09954081992218278</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9613569321533924</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9591750668532489</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>93.58507138181703</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2120680171505413</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9358507138181705</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9316925138948762</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3.724093300637701</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1644842552092735</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.03724093300637702</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0411038500622676</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>90.29533127449199</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3561255774562596</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9029533127449199</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.888150982039412</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>94.07079646017699</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.221255084283257</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.94070796460177</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9373650044839976</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>89.41002949852506</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4048371162981009</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8941002949852507</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8837304456027064</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.44542772861357</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2313325809014108</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9144542772861357</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9121982182270646</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>95.6637168141593</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1247729618558272</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9566371681415931</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9553888247201676</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>94.83775811209441</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.126910319144857</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9483775811209438</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9476191804299136</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>92.62536873156343</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1879026488846004</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9262536873156343</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9226174679890897</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>97.22713864306785</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06741237978043652</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9722713864306785</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9718895010570001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>98.28908554572271</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04789240789339525</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9828908554572271</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9828294244929087</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>95.95870206489676</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.093566834415761</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9595870206489675</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9590171838219541</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>91.18011401482713</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2368519679519522</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9118011401482711</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9062210681601595</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>95.92920353982302</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1200789486049568</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.95929203539823</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9572237935308869</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>92.9203539823009</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2154508868716334</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.929203539823009</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9252819691457935</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.86135693215338</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2091673983978884</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9286135693215339</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9284157844755259</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.77876106194689</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1283273182877262</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.947787610619469</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9455046984953647</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>96.57817109144543</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0752368796772013</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9657817109144542</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9655163185342819</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>93.51049749565308</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2672264613876904</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9351049749565308</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9296112685377389</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>96.51917404129793</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1399757156754276</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9651917404129794</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9644051919478613</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>94.04129793510324</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1428354957529639</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9404129793510325</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9389467840373864</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>88.40707964601771</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3495332604886546</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8840707964601769</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8691969807893635</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>91.62276490281059</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2696482474915683</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9162276490281058</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9043949067835235</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>93.59882005899705</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1767483675395246</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9359882005899705</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9329992388387739</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>94.27728613569322</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1639908739889355</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9427728613569322</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9406568796282562</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>95.60471976401179</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1576205637394802</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.956047197640118</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9544663595347123</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>90.41297935103245</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3442798496375114</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9041297935103245</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8857804011023649</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>84.30695767264423</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6857730878050233</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8430695767264422</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8365590275606936</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>87.16814159292036</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5743878759196377</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8716814159292035</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8573923666076151</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>99.52802359882006</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.03121872144146233</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9952802359882005</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9952741613154095</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>99.70501474926253</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.008673351907826067</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9970501474926253</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9970494759113666</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>95.22123893805311</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1090465675234687</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.952212389380531</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.948425835679463</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>93.5998437126042</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.208935991700148</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.935998437126042</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9314709581160252</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3.465744341714224</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1494314385774836</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.03465744341714226</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.03865265141032831</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>